--- a/_nationalV2.xlsx
+++ b/_nationalV2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimator</t>
+    <t xml:space="preserve">Estimate</t>
   </si>
   <si>
     <t xml:space="preserve">LCL</t>
@@ -621,9 +621,6 @@
   </si>
   <si>
     <t xml:space="preserve">EPI : First dose measles vaccine for children below 12 months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPI : Second dose measles vaccine for children below 12 months</t>
   </si>
   <si>
     <t xml:space="preserve">EPI : Full EPI coverage for children below 12 months (without rotavirus vaccine)</t>
@@ -2363,13 +2360,13 @@
         <v>9</v>
       </c>
       <c r="C76" t="n">
-        <v>0.125726078689315</v>
+        <v>0.12268306008133</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0976208461051646</v>
+        <v>0.0954716442612455</v>
       </c>
       <c r="E76" t="n">
-        <v>0.153831311273465</v>
+        <v>0.149894475901414</v>
       </c>
     </row>
     <row r="77">
@@ -2380,13 +2377,13 @@
         <v>9</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0749835572765178</v>
+        <v>0.0739839141372089</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0587579382566952</v>
+        <v>0.0578175660477847</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0912091762963403</v>
+        <v>0.0901502622266331</v>
       </c>
     </row>
     <row r="78">
@@ -2397,13 +2394,13 @@
         <v>9</v>
       </c>
       <c r="C78" t="n">
-        <v>0.328974349978373</v>
+        <v>0.331228661964194</v>
       </c>
       <c r="D78" t="n">
-        <v>0.304403336607871</v>
+        <v>0.306635929245158</v>
       </c>
       <c r="E78" t="n">
-        <v>0.353545363348875</v>
+        <v>0.355821394683229</v>
       </c>
     </row>
     <row r="79">
@@ -2414,13 +2411,13 @@
         <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>0.313918961511238</v>
+        <v>0.311685109214921</v>
       </c>
       <c r="D79" t="n">
-        <v>0.283638452562659</v>
+        <v>0.281461464582101</v>
       </c>
       <c r="E79" t="n">
-        <v>0.344199470459817</v>
+        <v>0.341908753847742</v>
       </c>
     </row>
     <row r="80">
@@ -2431,13 +2428,13 @@
         <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>0.815774286647019</v>
+        <v>0.81843808058757</v>
       </c>
       <c r="D80" t="n">
-        <v>0.796876053234415</v>
+        <v>0.800078791657561</v>
       </c>
       <c r="E80" t="n">
-        <v>0.834672520059624</v>
+        <v>0.836797369517579</v>
       </c>
     </row>
     <row r="81">
@@ -2448,13 +2445,13 @@
         <v>9</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0442614860012715</v>
+        <v>0.0415772323712162</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0302322463774469</v>
+        <v>0.0283880186574978</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0582907256250962</v>
+        <v>0.0547664460849347</v>
       </c>
     </row>
     <row r="82">
@@ -2465,13 +2462,13 @@
         <v>9</v>
       </c>
       <c r="C82" t="n">
-        <v>0.145493792511249</v>
+        <v>0.145671301930048</v>
       </c>
       <c r="D82" t="n">
-        <v>0.117723154990395</v>
+        <v>0.117911112863331</v>
       </c>
       <c r="E82" t="n">
-        <v>0.173264430032103</v>
+        <v>0.173431490996766</v>
       </c>
     </row>
     <row r="83">
@@ -2482,13 +2479,13 @@
         <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>0.269765365315145</v>
+        <v>0.269727039417904</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2412379227829</v>
+        <v>0.241195581537999</v>
       </c>
       <c r="E83" t="n">
-        <v>0.29829280784739</v>
+        <v>0.29825849729781</v>
       </c>
     </row>
     <row r="84">
@@ -2499,13 +2496,13 @@
         <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>0.966000164237255</v>
+        <v>0.968742627124774</v>
       </c>
       <c r="D84" t="n">
-        <v>0.946537994010333</v>
+        <v>0.949833806954925</v>
       </c>
       <c r="E84" t="n">
-        <v>0.985462334464177</v>
+        <v>0.987651447294623</v>
       </c>
     </row>
     <row r="85">
@@ -2516,13 +2513,13 @@
         <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>0.296231415122743</v>
+        <v>0.293349768713666</v>
       </c>
       <c r="D85" t="n">
-        <v>0.268254779037725</v>
+        <v>0.265651043639227</v>
       </c>
       <c r="E85" t="n">
-        <v>0.324208051207761</v>
+        <v>0.321048493788106</v>
       </c>
     </row>
     <row r="86">
@@ -2533,13 +2530,13 @@
         <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>0.085289467313538</v>
+        <v>0.0854623660980827</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0685383603729125</v>
+        <v>0.0687276397298921</v>
       </c>
       <c r="E86" t="n">
-        <v>0.102040574254164</v>
+        <v>0.102197092466273</v>
       </c>
     </row>
     <row r="87">
@@ -2550,13 +2547,13 @@
         <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>0.178533895835117</v>
+        <v>0.178628702001976</v>
       </c>
       <c r="D87" t="n">
-        <v>0.143506039665322</v>
+        <v>0.143608971824918</v>
       </c>
       <c r="E87" t="n">
-        <v>0.213561752004913</v>
+        <v>0.213648432179033</v>
       </c>
     </row>
     <row r="88">
@@ -2567,13 +2564,13 @@
         <v>9</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0249044453881088</v>
+        <v>0.0246367404367056</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0158066506521537</v>
+        <v>0.0155306379316637</v>
       </c>
       <c r="E88" t="n">
-        <v>0.034002240124064</v>
+        <v>0.0337428429417474</v>
       </c>
     </row>
     <row r="89">
@@ -2584,13 +2581,13 @@
         <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>0.520255789762348</v>
+        <v>0.522802012529408</v>
       </c>
       <c r="D89" t="n">
-        <v>0.484371752514986</v>
+        <v>0.487119511758237</v>
       </c>
       <c r="E89" t="n">
-        <v>0.556139827009709</v>
+        <v>0.558484513300579</v>
       </c>
     </row>
     <row r="90">
@@ -2601,13 +2598,13 @@
         <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0506316247143203</v>
+        <v>0.0480854019472597</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0332431803982509</v>
+        <v>0.0311491276398026</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0680200690303896</v>
+        <v>0.0650216762547169</v>
       </c>
     </row>
     <row r="91">
@@ -2618,13 +2615,13 @@
         <v>9</v>
       </c>
       <c r="C91" t="n">
-        <v>0.326681708856748</v>
+        <v>0.326720611083271</v>
       </c>
       <c r="D91" t="n">
-        <v>0.288129744687567</v>
+        <v>0.288174927092812</v>
       </c>
       <c r="E91" t="n">
-        <v>0.36523367302593</v>
+        <v>0.36526629507373</v>
       </c>
     </row>
     <row r="92">
@@ -2635,13 +2632,13 @@
         <v>9</v>
       </c>
       <c r="C92" t="n">
-        <v>0.033894148213763</v>
+        <v>0.0338552459872405</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0224424497249297</v>
+        <v>0.0224001769071822</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0453458467025963</v>
+        <v>0.0453103150672988</v>
       </c>
     </row>
     <row r="93">
@@ -2652,13 +2649,13 @@
         <v>9</v>
       </c>
       <c r="C93" t="n">
-        <v>0.476971456006163</v>
+        <v>0.477008917409481</v>
       </c>
       <c r="D93" t="n">
-        <v>0.443069720866814</v>
+        <v>0.443114280934549</v>
       </c>
       <c r="E93" t="n">
-        <v>0.510873191145513</v>
+        <v>0.510903553884414</v>
       </c>
     </row>
     <row r="94">
@@ -2669,13 +2666,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="n">
-        <v>2.94232007441615</v>
+        <v>2.94824329861</v>
       </c>
       <c r="D94" t="n">
-        <v>2.82653565695903</v>
+        <v>2.83402942344631</v>
       </c>
       <c r="E94" t="n">
-        <v>3.05810449187326</v>
+        <v>3.06245717377369</v>
       </c>
     </row>
     <row r="95">
@@ -2686,13 +2683,13 @@
         <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>0.104672194328581</v>
+        <v>0.0987115087314052</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0807827875848582</v>
+        <v>0.0771379972203142</v>
       </c>
       <c r="E95" t="n">
-        <v>0.128561601072304</v>
+        <v>0.120285020242496</v>
       </c>
     </row>
     <row r="96">
@@ -2703,13 +2700,13 @@
         <v>9</v>
       </c>
       <c r="C96" t="n">
-        <v>0.746866440301182</v>
+        <v>0.749412663068243</v>
       </c>
       <c r="D96" t="n">
-        <v>0.714729948055527</v>
+        <v>0.717713588934729</v>
       </c>
       <c r="E96" t="n">
-        <v>0.779002932546837</v>
+        <v>0.781111737201756</v>
       </c>
     </row>
     <row r="97">
@@ -2720,13 +2717,13 @@
         <v>9</v>
       </c>
       <c r="C97" t="n">
-        <v>0.349473237172186</v>
+        <v>0.346965340302367</v>
       </c>
       <c r="D97" t="n">
-        <v>0.310518136068895</v>
+        <v>0.307899252479719</v>
       </c>
       <c r="E97" t="n">
-        <v>0.388428338275477</v>
+        <v>0.386031428125015</v>
       </c>
     </row>
     <row r="98">
@@ -2737,13 +2734,13 @@
         <v>9</v>
       </c>
       <c r="C98" t="n">
-        <v>0.825673998398104</v>
+        <v>0.828199473311019</v>
       </c>
       <c r="D98" t="n">
-        <v>0.793087907520387</v>
+        <v>0.796103074984082</v>
       </c>
       <c r="E98" t="n">
-        <v>0.85826008927582</v>
+        <v>0.860295871637955</v>
       </c>
     </row>
     <row r="99">
@@ -2754,13 +2751,13 @@
         <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>0.35066095148436</v>
+        <v>0.348277253574771</v>
       </c>
       <c r="D99" t="n">
-        <v>0.32245378246364</v>
+        <v>0.320155177782134</v>
       </c>
       <c r="E99" t="n">
-        <v>0.37886812050508</v>
+        <v>0.376399329367408</v>
       </c>
     </row>
     <row r="100">
@@ -2771,13 +2768,13 @@
         <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>0.511974641514008</v>
+        <v>0.511832576346041</v>
       </c>
       <c r="D100" t="n">
-        <v>0.475464241184841</v>
+        <v>0.475293323569738</v>
       </c>
       <c r="E100" t="n">
-        <v>0.548485041843175</v>
+        <v>0.548371829122343</v>
       </c>
     </row>
     <row r="101">
@@ -2788,13 +2785,13 @@
         <v>9</v>
       </c>
       <c r="C101" t="n">
-        <v>0.673417334228702</v>
+        <v>0.673596284470705</v>
       </c>
       <c r="D101" t="n">
-        <v>0.643877154844747</v>
+        <v>0.644106845715434</v>
       </c>
       <c r="E101" t="n">
-        <v>0.702957513612657</v>
+        <v>0.703085723225977</v>
       </c>
     </row>
     <row r="102">
@@ -2805,13 +2802,13 @@
         <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>0.665174146100631</v>
+        <v>0.66749761760027</v>
       </c>
       <c r="D102" t="n">
-        <v>0.632886854914592</v>
+        <v>0.635464901850517</v>
       </c>
       <c r="E102" t="n">
-        <v>0.69746143728667</v>
+        <v>0.699530333350023</v>
       </c>
     </row>
     <row r="103">
@@ -2822,13 +2819,13 @@
         <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>0.479415149145313</v>
+        <v>0.476895149360575</v>
       </c>
       <c r="D103" t="n">
-        <v>0.445577244832358</v>
+        <v>0.442944308998692</v>
       </c>
       <c r="E103" t="n">
-        <v>0.513253053458268</v>
+        <v>0.510845989722458</v>
       </c>
     </row>
     <row r="104">
@@ -2839,13 +2836,13 @@
         <v>9</v>
       </c>
       <c r="C104" t="n">
-        <v>0.694681717960841</v>
+        <v>0.697211803508011</v>
       </c>
       <c r="D104" t="n">
-        <v>0.65368241290097</v>
+        <v>0.656575659560064</v>
       </c>
       <c r="E104" t="n">
-        <v>0.735681023020713</v>
+        <v>0.737847947455958</v>
       </c>
     </row>
     <row r="105">
@@ -2873,13 +2870,13 @@
         <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>0.880097189469534</v>
+        <v>0.880112462195502</v>
       </c>
       <c r="D106" t="n">
-        <v>0.85465217789641</v>
+        <v>0.854668245640712</v>
       </c>
       <c r="E106" t="n">
-        <v>0.905542201042657</v>
+        <v>0.905556678750291</v>
       </c>
     </row>
     <row r="107">
@@ -2890,13 +2887,13 @@
         <v>9</v>
       </c>
       <c r="C107" t="n">
-        <v>0.697355546458419</v>
+        <v>0.697348918671678</v>
       </c>
       <c r="D107" t="n">
-        <v>0.656742610571322</v>
+        <v>0.656735837979467</v>
       </c>
       <c r="E107" t="n">
-        <v>0.737968482345516</v>
+        <v>0.737961999363889</v>
       </c>
     </row>
     <row r="108">
@@ -2907,13 +2904,13 @@
         <v>9</v>
       </c>
       <c r="C108" t="n">
-        <v>0.834054094932307</v>
+        <v>0.834223823905802</v>
       </c>
       <c r="D108" t="n">
-        <v>0.802417994027946</v>
+        <v>0.802593523904466</v>
       </c>
       <c r="E108" t="n">
-        <v>0.865690195836669</v>
+        <v>0.865854123907138</v>
       </c>
     </row>
     <row r="109">
@@ -2924,13 +2921,13 @@
         <v>9</v>
       </c>
       <c r="C109" t="n">
-        <v>0.769177309126351</v>
+        <v>0.769039854592638</v>
       </c>
       <c r="D109" t="n">
-        <v>0.739268460578971</v>
+        <v>0.739129802135005</v>
       </c>
       <c r="E109" t="n">
-        <v>0.799086157673731</v>
+        <v>0.798949907050271</v>
       </c>
     </row>
     <row r="110">
@@ -2941,13 +2938,13 @@
         <v>9</v>
       </c>
       <c r="C110" t="n">
-        <v>0.621319519170026</v>
+        <v>0.621298194986599</v>
       </c>
       <c r="D110" t="n">
-        <v>0.582230301497357</v>
+        <v>0.58220900277556</v>
       </c>
       <c r="E110" t="n">
-        <v>0.660408736842696</v>
+        <v>0.660387387197639</v>
       </c>
     </row>
     <row r="111">
@@ -2958,13 +2955,13 @@
         <v>9</v>
       </c>
       <c r="C111" t="n">
-        <v>0.606204816777786</v>
+        <v>0.603675019395257</v>
       </c>
       <c r="D111" t="n">
-        <v>0.553518873813076</v>
+        <v>0.550661481224289</v>
       </c>
       <c r="E111" t="n">
-        <v>0.658890759742496</v>
+        <v>0.656688557566225</v>
       </c>
     </row>
     <row r="112">
@@ -2975,13 +2972,13 @@
         <v>9</v>
       </c>
       <c r="C112" t="n">
-        <v>0.384311391572495</v>
+        <v>0.384828647102924</v>
       </c>
       <c r="D112" t="n">
-        <v>0.337289995259359</v>
+        <v>0.337806404969713</v>
       </c>
       <c r="E112" t="n">
-        <v>0.43133278788563</v>
+        <v>0.431850889236135</v>
       </c>
     </row>
     <row r="113">
@@ -2992,13 +2989,13 @@
         <v>6</v>
       </c>
       <c r="C113" t="n">
-        <v>141.0382645771</v>
+        <v>141.43556840594</v>
       </c>
       <c r="D113" t="n">
-        <v>139.87742841565</v>
+        <v>140.629298920634</v>
       </c>
       <c r="E113" t="n">
-        <v>142.199100738549</v>
+        <v>142.241837891246</v>
       </c>
     </row>
     <row r="114">
@@ -3009,13 +3006,13 @@
         <v>9</v>
       </c>
       <c r="C114" t="n">
-        <v>0.49237741942288</v>
+        <v>0.0949649525128018</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.29131730576932</v>
+        <v>0.0834767960023641</v>
       </c>
       <c r="E114" t="n">
-        <v>1.27607214461508</v>
+        <v>0.10645310902324</v>
       </c>
     </row>
     <row r="115">
@@ -3026,13 +3023,13 @@
         <v>9</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0763559302629867</v>
+        <v>0.0762588187790008</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0680534607724114</v>
+        <v>0.0679713574799509</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0846583997535619</v>
+        <v>0.0845462800780506</v>
       </c>
     </row>
     <row r="116">
@@ -3043,13 +3040,13 @@
         <v>9</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0178516743006848</v>
+        <v>0.0176035645448633</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0144719653429036</v>
+        <v>0.0142879186748985</v>
       </c>
       <c r="E116" t="n">
-        <v>0.021231383258466</v>
+        <v>0.020919210414828</v>
       </c>
     </row>
     <row r="117">
@@ -3060,13 +3057,13 @@
         <v>6</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.48499522792401</v>
+        <v>-1.49174807811904</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.56078162784365</v>
+        <v>-1.56763624534259</v>
       </c>
       <c r="E117" t="n">
-        <v>-1.40920882800437</v>
+        <v>-1.41585991089549</v>
       </c>
     </row>
     <row r="118">
@@ -3077,13 +3074,13 @@
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>0.355245740782281</v>
+        <v>0.363503098567491</v>
       </c>
       <c r="D118" t="n">
-        <v>0.328858486395537</v>
+        <v>0.341374684856011</v>
       </c>
       <c r="E118" t="n">
-        <v>0.381632995169024</v>
+        <v>0.385631512278971</v>
       </c>
     </row>
     <row r="119">
@@ -3094,13 +3091,13 @@
         <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>0.213431736874528</v>
+        <v>0.212535256676664</v>
       </c>
       <c r="D119" t="n">
-        <v>0.204484771632182</v>
+        <v>0.203848262307805</v>
       </c>
       <c r="E119" t="n">
-        <v>0.222378702116873</v>
+        <v>0.221222251045522</v>
       </c>
     </row>
     <row r="120">
@@ -3111,13 +3108,13 @@
         <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>0.150420591449636</v>
+        <v>0.150597236374513</v>
       </c>
       <c r="D120" t="n">
-        <v>0.135654670558153</v>
+        <v>0.135803487285137</v>
       </c>
       <c r="E120" t="n">
-        <v>0.16518651234112</v>
+        <v>0.165390985463888</v>
       </c>
     </row>
     <row r="121">
@@ -3128,13 +3125,13 @@
         <v>6</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.40620160534699</v>
+        <v>-1.41289307647351</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.46544731494902</v>
+        <v>-1.47180671082949</v>
       </c>
       <c r="E121" t="n">
-        <v>-1.34695589574497</v>
+        <v>-1.35397944211754</v>
       </c>
     </row>
     <row r="122">
@@ -3145,13 +3142,13 @@
         <v>9</v>
       </c>
       <c r="C122" t="n">
-        <v>0.284416724321908</v>
+        <v>0.291564360074982</v>
       </c>
       <c r="D122" t="n">
-        <v>0.261325587066081</v>
+        <v>0.272180911907594</v>
       </c>
       <c r="E122" t="n">
-        <v>0.307507861577734</v>
+        <v>0.310947808242371</v>
       </c>
     </row>
     <row r="123">
@@ -3162,13 +3159,13 @@
         <v>9</v>
       </c>
       <c r="C123" t="n">
-        <v>0.211885453212861</v>
+        <v>0.211369350340995</v>
       </c>
       <c r="D123" t="n">
-        <v>0.202182661340067</v>
+        <v>0.201795310962844</v>
       </c>
       <c r="E123" t="n">
-        <v>0.221588245085655</v>
+        <v>0.220943389719146</v>
       </c>
     </row>
     <row r="124">
@@ -3179,13 +3176,13 @@
         <v>9</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0795958715816792</v>
+        <v>0.0792569899639718</v>
       </c>
       <c r="D124" t="n">
-        <v>0.06733492313626</v>
+        <v>0.0670517203605665</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0918568200270985</v>
+        <v>0.091462259567377</v>
       </c>
     </row>
     <row r="125">
@@ -3196,13 +3193,13 @@
         <v>6</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.759424970672349</v>
+        <v>-0.762486143652711</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.808503548497745</v>
+        <v>-0.811298188291328</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.710346392846952</v>
+        <v>-0.713674099014095</v>
       </c>
     </row>
     <row r="126">
@@ -3213,13 +3210,13 @@
         <v>9</v>
       </c>
       <c r="C126" t="n">
-        <v>0.132911820639886</v>
+        <v>0.136010743188208</v>
       </c>
       <c r="D126" t="n">
-        <v>0.120366341307554</v>
+        <v>0.124893505721553</v>
       </c>
       <c r="E126" t="n">
-        <v>0.145457299972218</v>
+        <v>0.147127980654862</v>
       </c>
     </row>
     <row r="127">
@@ -3230,13 +3227,13 @@
         <v>9</v>
       </c>
       <c r="C127" t="n">
-        <v>0.107910469494764</v>
+        <v>0.10779808528481</v>
       </c>
       <c r="D127" t="n">
-        <v>0.101637071772377</v>
+        <v>0.101535208472946</v>
       </c>
       <c r="E127" t="n">
-        <v>0.114183867217151</v>
+        <v>0.114060962096674</v>
       </c>
     </row>
     <row r="128">
@@ -3247,13 +3244,13 @@
         <v>9</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0275050081708089</v>
+        <v>0.0271917732061422</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0211954170128309</v>
+        <v>0.0209203091767578</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0338145993287868</v>
+        <v>0.0334632372355266</v>
       </c>
     </row>
     <row r="129">
@@ -3264,13 +3261,13 @@
         <v>9</v>
       </c>
       <c r="C129" t="n">
-        <v>0.00188834287019755</v>
+        <v>0.00181745436853425</v>
       </c>
       <c r="D129" t="n">
-        <v>0.00112313028140376</v>
+        <v>0.00107657389062328</v>
       </c>
       <c r="E129" t="n">
-        <v>0.00265355545899134</v>
+        <v>0.00255833484644523</v>
       </c>
     </row>
     <row r="130">
@@ -3281,13 +3278,13 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0213298368761361</v>
+        <v>0.0213773840418859</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0187269261776103</v>
+        <v>0.0187759262560135</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0239327475746619</v>
+        <v>0.0239788418277582</v>
       </c>
     </row>
     <row r="131">
@@ -3298,13 +3295,13 @@
         <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>0.00860775634751023</v>
+        <v>0.00852937556518333</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00709808895760295</v>
+        <v>0.00701963346565221</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0101174237374175</v>
+        <v>0.0100391176647145</v>
       </c>
     </row>
     <row r="132">
@@ -3315,13 +3312,13 @@
         <v>9</v>
       </c>
       <c r="C132" t="n">
-        <v>0.23899278882656</v>
+        <v>0.239767663545961</v>
       </c>
       <c r="D132" t="n">
-        <v>0.220190274521655</v>
+        <v>0.221055965705001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.257795303131464</v>
+        <v>0.25847936138692</v>
       </c>
     </row>
     <row r="133">
@@ -3332,13 +3329,13 @@
         <v>9</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23568502551313</v>
+        <v>0.237324970484536</v>
       </c>
       <c r="D133" t="n">
-        <v>0.216295817106359</v>
+        <v>0.217571473305307</v>
       </c>
       <c r="E133" t="n">
-        <v>0.255074233919902</v>
+        <v>0.257078467663765</v>
       </c>
     </row>
     <row r="134">
@@ -3349,13 +3346,13 @@
         <v>9</v>
       </c>
       <c r="C134" t="n">
-        <v>0.233525693948092</v>
+        <v>0.231325268750121</v>
       </c>
       <c r="D134" t="n">
-        <v>0.213685031946592</v>
+        <v>0.211877126472802</v>
       </c>
       <c r="E134" t="n">
-        <v>0.253366355949593</v>
+        <v>0.25077341102744</v>
       </c>
     </row>
     <row r="135">
@@ -3366,13 +3363,13 @@
         <v>9</v>
       </c>
       <c r="C135" t="n">
-        <v>0.627207624772783</v>
+        <v>0.628664585197212</v>
       </c>
       <c r="D135" t="n">
-        <v>0.601593511450228</v>
+        <v>0.603231215346012</v>
       </c>
       <c r="E135" t="n">
-        <v>0.652821738095338</v>
+        <v>0.654097955048413</v>
       </c>
     </row>
     <row r="136">
@@ -3383,13 +3380,13 @@
         <v>9</v>
       </c>
       <c r="C136" t="n">
-        <v>0.70174350720473</v>
+        <v>0.700994855467652</v>
       </c>
       <c r="D136" t="n">
-        <v>0.676641032736942</v>
+        <v>0.675798754830143</v>
       </c>
       <c r="E136" t="n">
-        <v>0.726845981672518</v>
+        <v>0.72619095610516</v>
       </c>
     </row>
     <row r="137">
@@ -3400,13 +3397,13 @@
         <v>9</v>
       </c>
       <c r="C137" t="n">
-        <v>0.747215123036962</v>
+        <v>0.747187459231434</v>
       </c>
       <c r="D137" t="n">
-        <v>0.723602177344566</v>
+        <v>0.723568446284857</v>
       </c>
       <c r="E137" t="n">
-        <v>0.770828068729357</v>
+        <v>0.770806472178012</v>
       </c>
     </row>
     <row r="138">
@@ -3417,13 +3414,13 @@
         <v>9</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258648384349802</v>
+        <v>0.25793344787571</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222744833190991</v>
+        <v>0.222012041289374</v>
       </c>
       <c r="E138" t="n">
-        <v>0.294551935508614</v>
+        <v>0.293854854462046</v>
       </c>
     </row>
     <row r="139">
@@ -3434,13 +3431,13 @@
         <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>0.432806504422793</v>
+        <v>0.435236308674927</v>
       </c>
       <c r="D139" t="n">
-        <v>0.401426474321508</v>
+        <v>0.403696335927264</v>
       </c>
       <c r="E139" t="n">
-        <v>0.464186534524078</v>
+        <v>0.466776281422589</v>
       </c>
     </row>
     <row r="140">
@@ -3451,13 +3448,13 @@
         <v>9</v>
       </c>
       <c r="C140" t="n">
-        <v>0.564617365949759</v>
+        <v>0.564609009175173</v>
       </c>
       <c r="D140" t="n">
-        <v>0.535208906497976</v>
+        <v>0.535202138435716</v>
       </c>
       <c r="E140" t="n">
-        <v>0.594025825401542</v>
+        <v>0.59401587991463</v>
       </c>
     </row>
     <row r="141">
@@ -3468,13 +3465,13 @@
         <v>9</v>
       </c>
       <c r="C141" t="n">
-        <v>0.00260155037811481</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.00252334556100676</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.00772644631723638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -3534,13 +3531,13 @@
         <v>9</v>
       </c>
       <c r="C145" t="n">
-        <v>0.164376117169216</v>
+        <v>0.164456226939388</v>
       </c>
       <c r="D145" t="n">
-        <v>0.137403698685716</v>
+        <v>0.137485958699677</v>
       </c>
       <c r="E145" t="n">
-        <v>0.191348535652717</v>
+        <v>0.1914264951791</v>
       </c>
     </row>
     <row r="146">
@@ -3551,13 +3548,13 @@
         <v>9</v>
       </c>
       <c r="C146" t="n">
-        <v>0.534435392640907</v>
+        <v>0.536014823037723</v>
       </c>
       <c r="D146" t="n">
-        <v>0.486031289445743</v>
+        <v>0.487841500006427</v>
       </c>
       <c r="E146" t="n">
-        <v>0.582839495836072</v>
+        <v>0.584188146069018</v>
       </c>
     </row>
     <row r="147">
@@ -3568,13 +3565,13 @@
         <v>9</v>
       </c>
       <c r="C147" t="n">
-        <v>0.807971191830963</v>
+        <v>0.807438663574566</v>
       </c>
       <c r="D147" t="n">
-        <v>0.778934677189886</v>
+        <v>0.778285977412755</v>
       </c>
       <c r="E147" t="n">
-        <v>0.83700770647204</v>
+        <v>0.836591349736376</v>
       </c>
     </row>
     <row r="148">
@@ -3585,13 +3582,13 @@
         <v>9</v>
       </c>
       <c r="C148" t="n">
-        <v>0.722462217846565</v>
+        <v>0.721335205935974</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6876474071077</v>
+        <v>0.686221931054848</v>
       </c>
       <c r="E148" t="n">
-        <v>0.757277028585429</v>
+        <v>0.756448480817101</v>
       </c>
     </row>
     <row r="149">
@@ -3602,13 +3599,13 @@
         <v>9</v>
       </c>
       <c r="C149" t="n">
-        <v>0.00300733799265759</v>
+        <v>0.00302779768216204</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.000328485180826818</v>
+        <v>-0.000308323538263722</v>
       </c>
       <c r="E149" t="n">
-        <v>0.006343161166142</v>
+        <v>0.00636391890258779</v>
       </c>
     </row>
     <row r="150">
@@ -3619,13 +3616,13 @@
         <v>9</v>
       </c>
       <c r="C150" t="n">
-        <v>0.175553272469869</v>
+        <v>0.175532812780364</v>
       </c>
       <c r="D150" t="n">
-        <v>0.141812578754924</v>
+        <v>0.141791552311977</v>
       </c>
       <c r="E150" t="n">
-        <v>0.209293966184813</v>
+        <v>0.209274073248751</v>
       </c>
     </row>
     <row r="151">
@@ -3653,13 +3650,13 @@
         <v>9</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0316664687258884</v>
+        <v>0.0322427980077038</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0256728625007671</v>
+        <v>0.0262093593113907</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0376600749510096</v>
+        <v>0.0382762367040168</v>
       </c>
     </row>
     <row r="153">
@@ -3670,13 +3667,13 @@
         <v>9</v>
       </c>
       <c r="C153" t="n">
-        <v>0.142173580351456</v>
+        <v>0.141597251069641</v>
       </c>
       <c r="D153" t="n">
-        <v>0.117792460642495</v>
+        <v>0.117205193379982</v>
       </c>
       <c r="E153" t="n">
-        <v>0.166554700060418</v>
+        <v>0.165989308759299</v>
       </c>
     </row>
     <row r="154">
@@ -3704,13 +3701,13 @@
         <v>9</v>
       </c>
       <c r="C155" t="n">
-        <v>0.000946866788317829</v>
+        <v>0.00107481188888085</v>
       </c>
       <c r="D155" t="n">
-        <v>0.000091182922018317</v>
+        <v>0.000183142305775466</v>
       </c>
       <c r="E155" t="n">
-        <v>0.00180255065461734</v>
+        <v>0.00196648147198624</v>
       </c>
     </row>
     <row r="156">
@@ -3721,13 +3718,13 @@
         <v>9</v>
       </c>
       <c r="C156" t="n">
-        <v>0.192096094228636</v>
+        <v>0.191968149128073</v>
       </c>
       <c r="D156" t="n">
-        <v>0.162335022762029</v>
+        <v>0.16219463436365</v>
       </c>
       <c r="E156" t="n">
-        <v>0.221857165695243</v>
+        <v>0.221741663892496</v>
       </c>
     </row>
     <row r="157">
@@ -3738,13 +3735,13 @@
         <v>9</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0418650513599892</v>
+        <v>0.0439735520375109</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0327207256812708</v>
+        <v>0.0339468139698478</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0510093770387075</v>
+        <v>0.054000290105174</v>
       </c>
     </row>
     <row r="158">
@@ -3755,13 +3752,13 @@
         <v>9</v>
       </c>
       <c r="C158" t="n">
-        <v>0.3639700501185</v>
+        <v>0.362756876980279</v>
       </c>
       <c r="D158" t="n">
-        <v>0.332061800635071</v>
+        <v>0.330908158807306</v>
       </c>
       <c r="E158" t="n">
-        <v>0.395878299601929</v>
+        <v>0.394605595153251</v>
       </c>
     </row>
     <row r="159">
@@ -3772,13 +3769,13 @@
         <v>9</v>
       </c>
       <c r="C159" t="n">
-        <v>0.666526559990265</v>
+        <v>0.665660913408978</v>
       </c>
       <c r="D159" t="n">
-        <v>0.628378313201195</v>
+        <v>0.627302721670643</v>
       </c>
       <c r="E159" t="n">
-        <v>0.704674806779334</v>
+        <v>0.704019105147313</v>
       </c>
     </row>
     <row r="160">
@@ -3806,13 +3803,13 @@
         <v>9</v>
       </c>
       <c r="C161" t="n">
-        <v>0.128855071283048</v>
+        <v>0.128878412618961</v>
       </c>
       <c r="D161" t="n">
-        <v>0.103500257516488</v>
+        <v>0.10352314907385</v>
       </c>
       <c r="E161" t="n">
-        <v>0.154209885049608</v>
+        <v>0.154233676164073</v>
       </c>
     </row>
     <row r="162">
@@ -3823,13 +3820,13 @@
         <v>9</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0751166484191529</v>
+        <v>0.0754546655429377</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0574962091556042</v>
+        <v>0.0578549388242252</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0927370876827017</v>
+        <v>0.0930543922616501</v>
       </c>
     </row>
     <row r="163">
@@ -3840,13 +3837,13 @@
         <v>9</v>
       </c>
       <c r="C163" t="n">
-        <v>0.383663416037631</v>
+        <v>0.383556218791213</v>
       </c>
       <c r="D163" t="n">
-        <v>0.349278629316256</v>
+        <v>0.349156712766238</v>
       </c>
       <c r="E163" t="n">
-        <v>0.418048202759006</v>
+        <v>0.417955724816189</v>
       </c>
     </row>
     <row r="164">
@@ -3857,13 +3854,13 @@
         <v>9</v>
       </c>
       <c r="C164" t="n">
-        <v>0.2312121201407</v>
+        <v>0.233604174824874</v>
       </c>
       <c r="D164" t="n">
-        <v>0.210924444001822</v>
+        <v>0.212877982636355</v>
       </c>
       <c r="E164" t="n">
-        <v>0.251499796279577</v>
+        <v>0.254330367013394</v>
       </c>
     </row>
     <row r="165">
@@ -3889,13 +3886,13 @@
         <v>9</v>
       </c>
       <c r="C166" t="n">
-        <v>0.735014822979934</v>
+        <v>0.732930816296889</v>
       </c>
       <c r="D166" t="n">
-        <v>0.722090412818234</v>
+        <v>0.719401736504162</v>
       </c>
       <c r="E166" t="n">
-        <v>0.747939233141634</v>
+        <v>0.746459896089617</v>
       </c>
     </row>
     <row r="167">
@@ -3906,13 +3903,13 @@
         <v>9</v>
       </c>
       <c r="C167" t="n">
-        <v>0.251234043906046</v>
+        <v>0.254006187751579</v>
       </c>
       <c r="D167" t="n">
-        <v>0.229209698364132</v>
+        <v>0.231694459429473</v>
       </c>
       <c r="E167" t="n">
-        <v>0.27325838944796</v>
+        <v>0.276317916073684</v>
       </c>
     </row>
     <row r="168">
@@ -3923,13 +3920,13 @@
         <v>9</v>
       </c>
       <c r="C168" t="n">
-        <v>0.621648715393492</v>
+        <v>0.632406765932499</v>
       </c>
       <c r="D168" t="n">
-        <v>0.595605303896666</v>
+        <v>0.597636336120896</v>
       </c>
       <c r="E168" t="n">
-        <v>0.647692126890318</v>
+        <v>0.667177195744103</v>
       </c>
     </row>
     <row r="169">
@@ -3940,13 +3937,13 @@
         <v>6</v>
       </c>
       <c r="C169" t="n">
-        <v>3.76594971561569</v>
+        <v>3.75242845433502</v>
       </c>
       <c r="D169" t="n">
-        <v>3.68621522528414</v>
+        <v>3.66973231607533</v>
       </c>
       <c r="E169" t="n">
-        <v>3.84568420594724</v>
+        <v>3.8351245925947</v>
       </c>
     </row>
     <row r="170">
@@ -3957,13 +3954,13 @@
         <v>9</v>
       </c>
       <c r="C170" t="n">
-        <v>0.126540234342381</v>
+        <v>0.127010519036343</v>
       </c>
       <c r="D170" t="n">
-        <v>0.113568309755432</v>
+        <v>0.114050596155432</v>
       </c>
       <c r="E170" t="n">
-        <v>0.13951215892933</v>
+        <v>0.139970441917253</v>
       </c>
     </row>
     <row r="171">
@@ -3974,13 +3971,13 @@
         <v>9</v>
       </c>
       <c r="C171" t="n">
-        <v>0.223873589156975</v>
+        <v>0.223284868795601</v>
       </c>
       <c r="D171" t="n">
-        <v>0.210137999191092</v>
+        <v>0.209493189331395</v>
       </c>
       <c r="E171" t="n">
-        <v>0.237609179122858</v>
+        <v>0.237076548259806</v>
       </c>
     </row>
     <row r="172">
@@ -4261,13 +4258,13 @@
         <v>9</v>
       </c>
       <c r="C190" t="n">
-        <v>0.617366834871261</v>
+        <v>0.617398821146402</v>
       </c>
       <c r="D190" t="n">
-        <v>0.581291289783133</v>
+        <v>0.58133022204603</v>
       </c>
       <c r="E190" t="n">
-        <v>0.653442379959389</v>
+        <v>0.653467420246774</v>
       </c>
     </row>
     <row r="191">
@@ -4295,13 +4292,13 @@
         <v>9</v>
       </c>
       <c r="C192" t="n">
-        <v>0.759855727047405</v>
+        <v>0.759849387425305</v>
       </c>
       <c r="D192" t="n">
-        <v>0.730856318595374</v>
+        <v>0.730847933706222</v>
       </c>
       <c r="E192" t="n">
-        <v>0.788855135499435</v>
+        <v>0.788850841144388</v>
       </c>
     </row>
     <row r="193">
@@ -4312,13 +4309,13 @@
         <v>9</v>
       </c>
       <c r="C193" t="n">
-        <v>0.590361172645671</v>
+        <v>0.590367512267771</v>
       </c>
       <c r="D193" t="n">
-        <v>0.558958647604117</v>
+        <v>0.558966546997128</v>
       </c>
       <c r="E193" t="n">
-        <v>0.621763697687225</v>
+        <v>0.621768477538414</v>
       </c>
     </row>
     <row r="194">
@@ -4329,13 +4326,13 @@
         <v>9</v>
       </c>
       <c r="C194" t="n">
-        <v>0.726628211271873</v>
+        <v>0.726550406818828</v>
       </c>
       <c r="D194" t="n">
-        <v>0.696736251866165</v>
+        <v>0.696634627446774</v>
       </c>
       <c r="E194" t="n">
-        <v>0.756520170677582</v>
+        <v>0.756466186190883</v>
       </c>
     </row>
     <row r="195">
@@ -4346,13 +4343,13 @@
         <v>9</v>
       </c>
       <c r="C195" t="n">
-        <v>0.568844056700896</v>
+        <v>0.568616982963861</v>
       </c>
       <c r="D195" t="n">
-        <v>0.536102559646766</v>
+        <v>0.535817167092479</v>
       </c>
       <c r="E195" t="n">
-        <v>0.601585553755027</v>
+        <v>0.601416798835243</v>
       </c>
     </row>
     <row r="196">
@@ -4363,13 +4360,13 @@
         <v>9</v>
       </c>
       <c r="C196" t="n">
-        <v>0.285040899434761</v>
+        <v>0.284985571823707</v>
       </c>
       <c r="D196" t="n">
-        <v>0.264058771414292</v>
+        <v>0.263991722657187</v>
       </c>
       <c r="E196" t="n">
-        <v>0.306023027455231</v>
+        <v>0.305979420990227</v>
       </c>
     </row>
     <row r="197">
@@ -4380,13 +4377,13 @@
         <v>9</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0744136256292081</v>
+        <v>0.0744652070999306</v>
       </c>
       <c r="D197" t="n">
-        <v>0.064264018187165</v>
+        <v>0.0643204962132603</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0845632330712513</v>
+        <v>0.084609917986601</v>
       </c>
     </row>
     <row r="198">
@@ -4397,13 +4394,13 @@
         <v>9</v>
       </c>
       <c r="C198" t="n">
-        <v>0.26724141579646</v>
+        <v>0.267432468953382</v>
       </c>
       <c r="D198" t="n">
-        <v>0.245291586681276</v>
+        <v>0.245517423697347</v>
       </c>
       <c r="E198" t="n">
-        <v>0.289191244911645</v>
+        <v>0.289347514209418</v>
       </c>
     </row>
     <row r="199">
@@ -4411,16 +4408,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>0.361608663024612</v>
+        <v>0.397921730248597</v>
       </c>
       <c r="D199" t="n">
-        <v>0.315035210266921</v>
+        <v>0.313520601873359</v>
       </c>
       <c r="E199" t="n">
-        <v>0.408182115782303</v>
+        <v>0.482322858623836</v>
       </c>
     </row>
     <row r="200">
@@ -4428,7 +4425,7 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C200"/>
       <c r="D200" t="e">
@@ -4488,7 +4485,7 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C204"/>
       <c r="D204" t="e">
@@ -4503,7 +4500,7 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C205"/>
       <c r="D205" t="e">
@@ -4581,13 +4578,13 @@
         <v>9</v>
       </c>
       <c r="C210" t="n">
-        <v>0.819917154973666</v>
+        <v>0.817208407349134</v>
       </c>
       <c r="D210" t="n">
-        <v>0.793537095445478</v>
+        <v>0.790259127621885</v>
       </c>
       <c r="E210" t="n">
-        <v>0.846297214501855</v>
+        <v>0.844157687076383</v>
       </c>
     </row>
     <row r="211">
@@ -4615,13 +4612,13 @@
         <v>9</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0336893234852461</v>
+        <v>0.033864527586918</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0250618804553598</v>
+        <v>0.0252312518075744</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0423167665151324</v>
+        <v>0.0424978033662615</v>
       </c>
     </row>
     <row r="213">
@@ -4629,16 +4626,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C213" t="n">
-        <v>0.122120235915672</v>
+        <v>0.842171632383814</v>
       </c>
       <c r="D213" t="n">
-        <v>0.100635669292975</v>
+        <v>-0.576735104216185</v>
       </c>
       <c r="E213" t="n">
-        <v>0.14360480253837</v>
+        <v>2.26107836898381</v>
       </c>
     </row>
     <row r="214">
@@ -4646,16 +4643,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C214" t="n">
-        <v>269.461547998816</v>
+        <v>268.741685062023</v>
       </c>
       <c r="D214" t="n">
-        <v>264.791148684766</v>
+        <v>263.764831641544</v>
       </c>
       <c r="E214" t="n">
-        <v>274.131947312867</v>
+        <v>273.718538482503</v>
       </c>
     </row>
     <row r="215">
@@ -4663,16 +4660,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C215" t="n">
-        <v>0.169778226342626</v>
+        <v>0.174294054430291</v>
       </c>
       <c r="D215" t="n">
-        <v>0.147653770959554</v>
+        <v>0.150285286277883</v>
       </c>
       <c r="E215" t="n">
-        <v>0.191902681725698</v>
+        <v>0.198302822582699</v>
       </c>
     </row>
     <row r="216">
@@ -4680,16 +4677,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C216" t="n">
-        <v>2.41680043715537</v>
+        <v>2.41192094529088</v>
       </c>
       <c r="D216" t="n">
-        <v>2.32011880140672</v>
+        <v>2.31426308181589</v>
       </c>
       <c r="E216" t="n">
-        <v>2.51348207290402</v>
+        <v>2.50957880876587</v>
       </c>
     </row>
     <row r="217">
@@ -4700,13 +4697,13 @@
         <v>9</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0733797188190964</v>
+        <v>0.0737137016379084</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0573243118617263</v>
+        <v>0.0576655686273049</v>
       </c>
       <c r="E217" t="n">
-        <v>0.0894351257764664</v>
+        <v>0.0897618346485119</v>
       </c>
     </row>
     <row r="218">
@@ -4717,13 +4714,13 @@
         <v>9</v>
       </c>
       <c r="C218" t="n">
-        <v>0.470908783619529</v>
+        <v>0.470744241609571</v>
       </c>
       <c r="D218" t="n">
-        <v>0.422933330012333</v>
+        <v>0.422750762835646</v>
       </c>
       <c r="E218" t="n">
-        <v>0.518884237226726</v>
+        <v>0.518737720383496</v>
       </c>
     </row>
     <row r="219">
@@ -4734,13 +4731,13 @@
         <v>9</v>
       </c>
       <c r="C219" t="n">
-        <v>0.328936826305564</v>
+        <v>0.331254246347744</v>
       </c>
       <c r="D219" t="n">
-        <v>0.295430904506371</v>
+        <v>0.297648775886706</v>
       </c>
       <c r="E219" t="n">
-        <v>0.362442748104758</v>
+        <v>0.364859716808782</v>
       </c>
     </row>
     <row r="220">
@@ -4751,13 +4748,13 @@
         <v>9</v>
       </c>
       <c r="C220" t="n">
-        <v>0.794814185568234</v>
+        <v>0.792406858158091</v>
       </c>
       <c r="D220" t="n">
-        <v>0.777678080410423</v>
+        <v>0.774770767525084</v>
       </c>
       <c r="E220" t="n">
-        <v>0.811950290726044</v>
+        <v>0.810042948791097</v>
       </c>
     </row>
     <row r="221">
@@ -4768,13 +4765,13 @@
         <v>9</v>
       </c>
       <c r="C221" t="n">
-        <v>0.322598124766378</v>
+        <v>0.324338639197461</v>
       </c>
       <c r="D221" t="n">
-        <v>0.299605223555171</v>
+        <v>0.301400830674255</v>
       </c>
       <c r="E221" t="n">
-        <v>0.345591025977585</v>
+        <v>0.347276447720666</v>
       </c>
     </row>
     <row r="222">
@@ -4785,13 +4782,13 @@
         <v>9</v>
       </c>
       <c r="C222" t="n">
-        <v>0.500676508575376</v>
+        <v>0.498856460703403</v>
       </c>
       <c r="D222" t="n">
-        <v>0.472402800279667</v>
+        <v>0.470420143483108</v>
       </c>
       <c r="E222" t="n">
-        <v>0.528950216871085</v>
+        <v>0.527292777923698</v>
       </c>
     </row>
     <row r="223">
@@ -4819,13 +4816,13 @@
         <v>9</v>
       </c>
       <c r="C224" t="n">
-        <v>0.181750516407448</v>
+        <v>0.182240684461632</v>
       </c>
       <c r="D224" t="n">
-        <v>0.141078797241419</v>
+        <v>0.141569353975476</v>
       </c>
       <c r="E224" t="n">
-        <v>0.222422235573478</v>
+        <v>0.222912014947789</v>
       </c>
     </row>
     <row r="225">
@@ -4836,13 +4833,13 @@
         <v>9</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0595987052058652</v>
+        <v>0.0604202625970931</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0430947093607076</v>
+        <v>0.0437163621654534</v>
       </c>
       <c r="E225" t="n">
-        <v>0.0761027010510228</v>
+        <v>0.0771241630287327</v>
       </c>
     </row>
     <row r="226">
@@ -4853,13 +4850,13 @@
         <v>9</v>
       </c>
       <c r="C226" t="n">
-        <v>0.104714224178159</v>
+        <v>0.104498388862119</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0776996988018658</v>
+        <v>0.0775270098071618</v>
       </c>
       <c r="E226" t="n">
-        <v>0.131728749554452</v>
+        <v>0.131469767917076</v>
       </c>
     </row>
     <row r="227">
@@ -4870,13 +4867,13 @@
         <v>9</v>
       </c>
       <c r="C227" t="n">
-        <v>0.130208977184436</v>
+        <v>0.129113087055064</v>
       </c>
       <c r="D227" t="n">
-        <v>0.100032268469807</v>
+        <v>0.0990489572919251</v>
       </c>
       <c r="E227" t="n">
-        <v>0.160385685899065</v>
+        <v>0.159177216818202</v>
       </c>
     </row>
     <row r="228">
@@ -4938,13 +4935,13 @@
         <v>9</v>
       </c>
       <c r="C231" t="n">
-        <v>0.143425980037164</v>
+        <v>0.143445863397386</v>
       </c>
       <c r="D231" t="n">
-        <v>0.110822600293351</v>
+        <v>0.110842877732685</v>
       </c>
       <c r="E231" t="n">
-        <v>0.176029359780977</v>
+        <v>0.176048849062088</v>
       </c>
     </row>
     <row r="232">
@@ -4955,13 +4952,13 @@
         <v>9</v>
       </c>
       <c r="C232" t="n">
-        <v>0.0510420559362585</v>
+        <v>0.0510221725760359</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0366226984705169</v>
+        <v>0.0366034875351166</v>
       </c>
       <c r="E232" t="n">
-        <v>0.0654614134020002</v>
+        <v>0.0654408576169552</v>
       </c>
     </row>
     <row r="233">
@@ -5023,13 +5020,13 @@
         <v>9</v>
       </c>
       <c r="C236" t="n">
-        <v>0.0710421118682793</v>
+        <v>0.0739237582773564</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0518243042452903</v>
+        <v>0.0539367622467034</v>
       </c>
       <c r="E236" t="n">
-        <v>0.0902599194912682</v>
+        <v>0.0939107543080093</v>
       </c>
     </row>
     <row r="237">
@@ -5040,30 +5037,30 @@
         <v>9</v>
       </c>
       <c r="C237" t="n">
-        <v>0.939213404390845</v>
+        <v>0.936351641341991</v>
       </c>
       <c r="D237" t="n">
-        <v>0.922459869321751</v>
+        <v>0.918681373803638</v>
       </c>
       <c r="E237" t="n">
-        <v>0.95596693945994</v>
+        <v>0.954021908880344</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
       </c>
       <c r="C238" t="n">
-        <v>0.806483344607704</v>
+        <v>0.809345107656559</v>
       </c>
       <c r="D238" t="n">
-        <v>0.77322284593443</v>
+        <v>0.776602122729146</v>
       </c>
       <c r="E238" t="n">
-        <v>0.839743843280979</v>
+        <v>0.842088092583972</v>
       </c>
     </row>
     <row r="239">
@@ -5074,13 +5071,13 @@
         <v>9</v>
       </c>
       <c r="C239" t="n">
-        <v>0.938873745390526</v>
+        <v>0.936011982341672</v>
       </c>
       <c r="D239" t="n">
-        <v>0.921886453199668</v>
+        <v>0.918125062617198</v>
       </c>
       <c r="E239" t="n">
-        <v>0.955861037581384</v>
+        <v>0.953898902066146</v>
       </c>
     </row>
     <row r="240">
@@ -5091,13 +5088,13 @@
         <v>9</v>
       </c>
       <c r="C240" t="n">
-        <v>0.806433227549924</v>
+        <v>0.806877577426203</v>
       </c>
       <c r="D240" t="n">
-        <v>0.773101762411718</v>
+        <v>0.773688613188736</v>
       </c>
       <c r="E240" t="n">
-        <v>0.839764692688129</v>
+        <v>0.84006654166367</v>
       </c>
     </row>
     <row r="241">
@@ -5108,13 +5105,13 @@
         <v>9</v>
       </c>
       <c r="C241" t="n">
-        <v>0.374169400609745</v>
+        <v>0.373993332014151</v>
       </c>
       <c r="D241" t="n">
-        <v>0.325253397922751</v>
+        <v>0.325056140985343</v>
       </c>
       <c r="E241" t="n">
-        <v>0.42308540329674</v>
+        <v>0.422930523042958</v>
       </c>
     </row>
     <row r="242">
@@ -5125,13 +5122,13 @@
         <v>9</v>
       </c>
       <c r="C242" t="n">
-        <v>0.302624974919802</v>
+        <v>0.30474500218296</v>
       </c>
       <c r="D242" t="n">
-        <v>0.255169284074051</v>
+        <v>0.257344693557126</v>
       </c>
       <c r="E242" t="n">
-        <v>0.350080665765553</v>
+        <v>0.352145310808793</v>
       </c>
     </row>
     <row r="243">
@@ -5142,30 +5139,13 @@
         <v>9</v>
       </c>
       <c r="C243" t="n">
-        <v>0.333426340516858</v>
+        <v>0.331155314981865</v>
       </c>
       <c r="D243" t="n">
-        <v>0.280245819765197</v>
+        <v>0.278206738971315</v>
       </c>
       <c r="E243" t="n">
-        <v>0.386606861268519</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>248</v>
-      </c>
-      <c r="B244" t="s">
-        <v>9</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0.142649643902598</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.0964175330540224</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0.188881754751174</v>
+        <v>0.384103890992414</v>
       </c>
     </row>
   </sheetData>
